--- a/Orientações/MLF-ROTEIRO-TESTES.xlsx
+++ b/Orientações/MLF-ROTEIRO-TESTES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabri\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4826C53-D483-4373-85C0-311A645D59D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED028B2-8E2B-4718-BC8F-CDBFCBFDB879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{65C3EB44-7CCA-441C-9812-E02187DC0CAE}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{65C3EB44-7CCA-441C-9812-E02187DC0CAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
   <si>
     <t>PASSO</t>
   </si>
@@ -192,13 +192,16 @@
   </si>
   <si>
     <t>Os arquivos errados devem ser jogados na pasta de Não Processados e os corretos na pasta Processados</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +211,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -256,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -291,6 +302,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B867554-D41E-4F0F-B5BC-6B7742B8BB8B}">
-  <dimension ref="D4:H18"/>
+  <dimension ref="D4:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,7 +748,9 @@
       <c r="F10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="10"/>
+      <c r="G10" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="H10" s="11" t="s">
         <v>23</v>
       </c>
@@ -739,13 +759,15 @@
       <c r="D11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="12" t="s">
         <v>25</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="10"/>
+      <c r="G11" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="H11" s="11" t="s">
         <v>27</v>
       </c>
@@ -760,7 +782,9 @@
       <c r="F12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="H12" s="11" t="s">
         <v>31</v>
       </c>
@@ -775,7 +799,9 @@
       <c r="F13" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="H13" s="11" t="s">
         <v>35</v>
       </c>
@@ -790,7 +816,9 @@
       <c r="F14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="10"/>
+      <c r="G14" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="H14" s="11" t="s">
         <v>39</v>
       </c>
@@ -805,7 +833,9 @@
       <c r="F15" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="10"/>
+      <c r="G15" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="H15" s="11" t="s">
         <v>39</v>
       </c>
@@ -820,7 +850,9 @@
       <c r="F16" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="10"/>
+      <c r="G16" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="H16" s="11"/>
     </row>
     <row r="17" spans="4:8" ht="45" x14ac:dyDescent="0.25">
@@ -833,7 +865,9 @@
       <c r="F17" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="10"/>
+      <c r="G17" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="H17" s="11"/>
     </row>
     <row r="18" spans="4:8" ht="60" x14ac:dyDescent="0.25">
@@ -846,10 +880,15 @@
       <c r="F18" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="10"/>
+      <c r="G18" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="H18" s="11" t="s">
         <v>51</v>
       </c>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="G19" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
